--- a/План Сентябрь-Плюс.xlsx
+++ b/План Сентябрь-Плюс.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Abitech\ASCOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094CD92-37ED-4F59-874D-66D63989A737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C162527-4C53-409D-BB8A-A1703F3433D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5856B211-B551-4229-9100-ED21EF4321D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5856B211-B551-4229-9100-ED21EF4321D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Сентябрь" sheetId="1" r:id="rId1"/>
+    <sheet name="Ноябрь" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>ТОиР</t>
   </si>
@@ -112,9 +113,6 @@
   </si>
   <si>
     <t>Журнал отказов</t>
-  </si>
-  <si>
-    <t>Документ инвентаризации ОС</t>
   </si>
   <si>
     <t>Александр Тиль</t>
@@ -151,9 +149,6 @@
     <t>Нуржан Ламашарипов</t>
   </si>
   <si>
-    <t>Отчте по списанию ТМЦ (доработка)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Отчет по планируемым ТМЦ (доработка) </t>
   </si>
   <si>
@@ -179,13 +174,167 @@
   </si>
   <si>
     <t>Поддержка системы</t>
+  </si>
+  <si>
+    <t>Отчет по списанию ТМЦ (доработка)</t>
+  </si>
+  <si>
+    <t>На тестировании</t>
+  </si>
+  <si>
+    <t>Начата спецификация</t>
+  </si>
+  <si>
+    <t>Начато</t>
+  </si>
+  <si>
+    <t>Синхронизация наряд-задания</t>
+  </si>
+  <si>
+    <t>Документ инвентаризации ОС - Web</t>
+  </si>
+  <si>
+    <t>В работе</t>
+  </si>
+  <si>
+    <t>Документ перемещения ОС</t>
+  </si>
+  <si>
+    <t>Начато. Приостановлено в пользу перемещения ОС</t>
+  </si>
+  <si>
+    <t>Начато. В зависимости от специалистов АГМК</t>
+  </si>
+  <si>
+    <t>Разворачивание на стороне АГМК и обучение</t>
+  </si>
+  <si>
+    <t>Завершено</t>
+  </si>
+  <si>
+    <t>Есть незавершенные части</t>
+  </si>
+  <si>
+    <t>Нужно добавить QR и Bar</t>
+  </si>
+  <si>
+    <t>Доработка интерфейса по составам</t>
+  </si>
+  <si>
+    <t>Сделано</t>
+  </si>
+  <si>
+    <t>Логирование работы контроллеров</t>
+  </si>
+  <si>
+    <t>Новые. Завершено</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь-Январь</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>А. Тиль</t>
+  </si>
+  <si>
+    <t>НД: Шапка / основные реквизиты</t>
+  </si>
+  <si>
+    <t>НД: Ответственные</t>
+  </si>
+  <si>
+    <t>НД: Перечень мероприятий</t>
+  </si>
+  <si>
+    <t>Доработка по замечаниям АГМК</t>
+  </si>
+  <si>
+    <t>НД: Выполнение</t>
+  </si>
+  <si>
+    <t>НД: Состав бригады</t>
+  </si>
+  <si>
+    <t>НД: Продление</t>
+  </si>
+  <si>
+    <t>НД: Закрытие</t>
+  </si>
+  <si>
+    <t>НД: Цифровая подпись</t>
+  </si>
+  <si>
+    <t>Синхронизация Документа перемещения ОС</t>
+  </si>
+  <si>
+    <t>Подключение Telegram-bot-а</t>
+  </si>
+  <si>
+    <t>Отладка документа инвентаризации ОС</t>
+  </si>
+  <si>
+    <t>Оргединицы и локации</t>
+  </si>
+  <si>
+    <t>Роли</t>
+  </si>
+  <si>
+    <t>Бригады</t>
+  </si>
+  <si>
+    <t>Квалификации</t>
+  </si>
+  <si>
+    <t>Должности</t>
+  </si>
+  <si>
+    <t>Сотрудники</t>
+  </si>
+  <si>
+    <t>Пользователи</t>
+  </si>
+  <si>
+    <t>Перенос справочников на WEB:</t>
+  </si>
+  <si>
+    <t>Отладка документа Наряд-допуск</t>
+  </si>
+  <si>
+    <t>Перенесено на ноябрь</t>
+  </si>
+  <si>
+    <t>План нужно уточнять по результатам общения с АГМК</t>
+  </si>
+  <si>
+    <t>Добавление аутентификации и авторизации на основе .net Identity Services</t>
+  </si>
+  <si>
+    <t>Формирование отчетов в Jasper Report ресурсами заказчика. Обучение. Доработка.</t>
+  </si>
+  <si>
+    <t>Доработка локального сервера для Hopeland handheld (QR, bar)
+Нужно будет доработать по результатам интеграции с Web клиентом</t>
+  </si>
+  <si>
+    <t>Рабочий стол/dashboard работника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подключение стационарных считывателей Hopeland </t>
+  </si>
+  <si>
+    <t>Документ Наряд-допуск</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,16 +352,60 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -326,11 +519,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,50 +592,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -706,535 +1088,1341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD203236-24F8-4381-ABC7-AAB930451B5A}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="36" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="36"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="27" t="s">
+      <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="37"/>
+      <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="38"/>
+      <c r="D6" s="15">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="15">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22">
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="15">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F12" s="82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="15">
+        <v>3</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
+      <c r="G14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="18">
+      <c r="F15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="15">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="15">
         <v>5</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="E19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="15">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="18">
-        <v>10</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="18">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B23" s="8"/>
+      <c r="C23" s="36"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="15">
         <v>5</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="18">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8" t="s">
+      <c r="E24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="18">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="18">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="18">
+        <v>46</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="15">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="18">
+        <v>37</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="15">
         <v>12</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="22">
-        <v>10</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="15">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="21">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="14" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="18">
         <v>3</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="38"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="18"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="18"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="18"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="38"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="C39" s="18"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CC9D6-9FF5-40E3-9111-3555540F4120}">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="36" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
+      <c r="B6" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
+      <c r="B10" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="15">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="72"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="15"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="73">
+        <v>10</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="73">
+        <v>10</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="72"/>
+      <c r="H32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="50">
+        <v>10</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="15">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="H38" s="51"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="48"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="36"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="15">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="15">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="15"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="15"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="15"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="15"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="85"/>
+      <c r="D53" s="18">
+        <v>3</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>